--- a/biology/Neurosciences/Nerf_plantaire_médial/Nerf_plantaire_médial.xlsx
+++ b/biology/Neurosciences/Nerf_plantaire_médial/Nerf_plantaire_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf plantaire médial (ou nerf plantaire interne) est un nerf mixte du pied.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf plantaire médial est la branche terminale médiale du nerf tibial qui nait dans la partie haute du canal calcanéen.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nerf plantaire médial débute en arrière et sur le côté latéral de l'artère tibiale postérieure, en avant du muscle fléchisseur de l'hallux puis passe rapidement en dessous de l'artère pour venir se placer au-dessus de l'artère plantaire médiale.
 Au niveau de la plante du pied, il devient satellite en dehors de l'artère plantaire médiale et se dirige vers l'avant en restant en dehors du muscle court fléchisseur de l'hallux et en dedans du muscle court fléchisseur des orteils.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_plantaire_m%C3%A9dial</t>
+          <t>Nerf_plantaire_médial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,15 +594,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Innervation motrice
-Le nerf plantaire médial donne des branches motrices qui innervent :
+          <t>Innervation motrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nerf plantaire médial donne des branches motrices qui innervent :
 le muscle court fléchisseur des orteils,
 le muscle carré plantaire,
 le muscle abducteur de l'hallux,
 le chef interne du muscle court fléchisseur de l'hallux,
-les deux premiers muscles lombricaux du pied.
-Innervation sensitive
-Le nerf plantaire médial assure l'innervation sensitive de la partie antéro-interne de la face plantaire du pied et des trois premiers orteils et du bord médial du quatrième.
+les deux premiers muscles lombricaux du pied.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_plantaire_médial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_plantaire_m%C3%A9dial</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf plantaire médial assure l'innervation sensitive de la partie antéro-interne de la face plantaire du pied et des trois premiers orteils et du bord médial du quatrième.
 Il donne des branches articulaires pour les articulations du tarse et du métatarse.
 </t>
         </is>
